--- a/data/outputs/OR_elsevier/16.xlsx
+++ b/data/outputs/OR_elsevier/16.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BS99"/>
+  <dimension ref="A1:BU99"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -722,6 +722,16 @@
           <t>eid</t>
         </is>
       </c>
+      <c r="BT1" s="1" t="inlineStr">
+        <is>
+          <t>views</t>
+        </is>
+      </c>
+      <c r="BU1" s="1" t="inlineStr">
+        <is>
+          <t>citations</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -937,6 +947,12 @@
           <t>2-s2.0-84941944570</t>
         </is>
       </c>
+      <c r="BT2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU2" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1152,6 +1168,12 @@
           <t>2-s2.0-84941938483</t>
         </is>
       </c>
+      <c r="BT3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU3" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1367,6 +1389,12 @@
           <t>2-s2.0-84941940808</t>
         </is>
       </c>
+      <c r="BT4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU4" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1578,6 +1606,12 @@
           <t>2-s2.0-84941942964</t>
         </is>
       </c>
+      <c r="BT5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU5" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1797,6 +1831,12 @@
           <t>2-s2.0-84941941286</t>
         </is>
       </c>
+      <c r="BT6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU6" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -2007,6 +2047,12 @@
         <is>
           <t>2-s2.0-84941940620</t>
         </is>
+      </c>
+      <c r="BT7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU7" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="8">
@@ -2215,6 +2261,12 @@
           <t>2-s2.0-84941939131</t>
         </is>
       </c>
+      <c r="BT8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU8" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -2426,6 +2478,12 @@
           <t>2-s2.0-84941935938</t>
         </is>
       </c>
+      <c r="BT9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU9" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -2641,6 +2699,12 @@
           <t>2-s2.0-84937818684</t>
         </is>
       </c>
+      <c r="BT10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU10" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -2860,6 +2924,12 @@
           <t>2-s2.0-84937976130</t>
         </is>
       </c>
+      <c r="BT11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU11" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -3075,6 +3145,12 @@
           <t>2-s2.0-84937971947</t>
         </is>
       </c>
+      <c r="BT12" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU12" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -3290,6 +3366,12 @@
           <t>2-s2.0-84937967112</t>
         </is>
       </c>
+      <c r="BT13" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU13" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -3505,6 +3587,12 @@
           <t>2-s2.0-84937966589</t>
         </is>
       </c>
+      <c r="BT14" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU14" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -3715,6 +3803,12 @@
         <is>
           <t>2-s2.0-84937970336</t>
         </is>
+      </c>
+      <c r="BT15" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU15" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="16">
@@ -3923,6 +4017,12 @@
           <t>2-s2.0-84937977636</t>
         </is>
       </c>
+      <c r="BT16" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU16" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -4134,6 +4234,12 @@
           <t>2-s2.0-84931010739</t>
         </is>
       </c>
+      <c r="BT17" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU17" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -4341,6 +4447,12 @@
           <t>2-s2.0-84931010223</t>
         </is>
       </c>
+      <c r="BT18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU18" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -4544,6 +4656,12 @@
           <t>2-s2.0-84931011611</t>
         </is>
       </c>
+      <c r="BT19" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU19" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -4750,6 +4868,12 @@
         <is>
           <t>2-s2.0-84931006302</t>
         </is>
+      </c>
+      <c r="BT20" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU20" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="21">
@@ -4954,6 +5078,12 @@
           <t>2-s2.0-84930989347</t>
         </is>
       </c>
+      <c r="BT21" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU21" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -5153,6 +5283,12 @@
           <t>2-s2.0-84931009677</t>
         </is>
       </c>
+      <c r="BT22" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU22" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -5360,6 +5496,12 @@
           <t>2-s2.0-84930971888</t>
         </is>
       </c>
+      <c r="BT23" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU23" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -5559,6 +5701,12 @@
           <t>2-s2.0-84931009983</t>
         </is>
       </c>
+      <c r="BT24" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU24" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -5777,6 +5925,12 @@
         <is>
           <t>2-s2.0-84929607150</t>
         </is>
+      </c>
+      <c r="BT25" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU25" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="26">
@@ -5977,6 +6131,12 @@
           <t>2-s2.0-84929607414</t>
         </is>
       </c>
+      <c r="BT26" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU26" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -6192,6 +6352,12 @@
           <t>2-s2.0-84929607024</t>
         </is>
       </c>
+      <c r="BT27" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU27" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -6407,6 +6573,12 @@
           <t>2-s2.0-84929606599</t>
         </is>
       </c>
+      <c r="BT28" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU28" t="n">
+        <v>102</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -6630,6 +6802,12 @@
           <t>2-s2.0-84929605815</t>
         </is>
       </c>
+      <c r="BT29" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU29" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -6841,6 +7019,12 @@
           <t>2-s2.0-84929605710</t>
         </is>
       </c>
+      <c r="BT30" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU30" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -7062,6 +7246,12 @@
           <t>2-s2.0-84929606528</t>
         </is>
       </c>
+      <c r="BT31" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU31" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -7277,6 +7467,12 @@
           <t>2-s2.0-84929607210</t>
         </is>
       </c>
+      <c r="BT32" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU32" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -7488,6 +7684,12 @@
           <t>2-s2.0-84929605657</t>
         </is>
       </c>
+      <c r="BT33" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU33" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -7707,6 +7909,12 @@
           <t>2-s2.0-84929027745</t>
         </is>
       </c>
+      <c r="BT34" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU34" t="n">
+        <v>41</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -7918,6 +8126,12 @@
           <t>2-s2.0-84929027178</t>
         </is>
       </c>
+      <c r="BT35" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU35" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -8141,6 +8355,12 @@
           <t>2-s2.0-84929025747</t>
         </is>
       </c>
+      <c r="BT36" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU36" t="n">
+        <v>35</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -8360,6 +8580,12 @@
           <t>2-s2.0-84929026034</t>
         </is>
       </c>
+      <c r="BT37" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU37" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -8583,6 +8809,12 @@
           <t>2-s2.0-84929026420</t>
         </is>
       </c>
+      <c r="BT38" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU38" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -8798,6 +9030,12 @@
           <t>2-s2.0-84929024776</t>
         </is>
       </c>
+      <c r="BT39" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU39" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -9013,6 +9251,12 @@
           <t>2-s2.0-84929028829</t>
         </is>
       </c>
+      <c r="BT40" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU40" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -9236,6 +9480,12 @@
           <t>2-s2.0-84929024699</t>
         </is>
       </c>
+      <c r="BT41" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU41" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -9459,6 +9709,12 @@
           <t>2-s2.0-84988241474</t>
         </is>
       </c>
+      <c r="BT42" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU42" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -9677,6 +9933,12 @@
         <is>
           <t>2-s2.0-84988231228</t>
         </is>
+      </c>
+      <c r="BT43" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU43" t="n">
+        <v>16</v>
       </c>
     </row>
     <row r="44">
@@ -9885,6 +10147,12 @@
           <t>2-s2.0-84988228119</t>
         </is>
       </c>
+      <c r="BT44" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU44" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -10104,6 +10372,12 @@
           <t>2-s2.0-84988287791</t>
         </is>
       </c>
+      <c r="BT45" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU45" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -10319,6 +10593,12 @@
           <t>2-s2.0-84988287261</t>
         </is>
       </c>
+      <c r="BT46" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU46" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -10542,6 +10822,12 @@
           <t>2-s2.0-84988221426</t>
         </is>
       </c>
+      <c r="BT47" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU47" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -10757,6 +11043,12 @@
           <t>2-s2.0-84988306321</t>
         </is>
       </c>
+      <c r="BT48" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU48" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -10972,6 +11264,12 @@
           <t>2-s2.0-84988221476</t>
         </is>
       </c>
+      <c r="BT49" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU49" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -11195,6 +11493,12 @@
           <t>2-s2.0-84988227333</t>
         </is>
       </c>
+      <c r="BT50" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU50" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -11406,6 +11710,12 @@
           <t>2-s2.0-84988304466</t>
         </is>
       </c>
+      <c r="BT51" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU51" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -11621,6 +11931,12 @@
           <t>2-s2.0-84925445887</t>
         </is>
       </c>
+      <c r="BT52" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU52" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -11836,6 +12152,12 @@
           <t>2-s2.0-84925458203</t>
         </is>
       </c>
+      <c r="BT53" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU53" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -12059,6 +12381,12 @@
           <t>2-s2.0-84925452166</t>
         </is>
       </c>
+      <c r="BT54" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU54" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -12282,6 +12610,12 @@
           <t>2-s2.0-84925409208</t>
         </is>
       </c>
+      <c r="BT55" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU55" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -12497,6 +12831,12 @@
           <t>2-s2.0-84925402208</t>
         </is>
       </c>
+      <c r="BT56" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU56" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -12708,6 +13048,12 @@
           <t>2-s2.0-84925453276</t>
         </is>
       </c>
+      <c r="BT57" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU57" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -12923,6 +13269,12 @@
           <t>2-s2.0-84925397139</t>
         </is>
       </c>
+      <c r="BT58" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU58" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -13137,6 +13489,12 @@
         <is>
           <t>2-s2.0-84925387413</t>
         </is>
+      </c>
+      <c r="BT59" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU59" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="60">
@@ -13345,6 +13703,12 @@
           <t>2-s2.0-84925449921</t>
         </is>
       </c>
+      <c r="BT60" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU60" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -13575,6 +13939,12 @@
         <is>
           <t>2-s2.0-84924962318</t>
         </is>
+      </c>
+      <c r="BT61" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU61" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="62">
@@ -13771,6 +14141,12 @@
           <t>2-s2.0-84924860715</t>
         </is>
       </c>
+      <c r="BT62" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU62" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -13998,6 +14374,12 @@
           <t>2-s2.0-84925013182</t>
         </is>
       </c>
+      <c r="BT63" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU63" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -14225,6 +14607,12 @@
           <t>2-s2.0-84924959215</t>
         </is>
       </c>
+      <c r="BT64" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU64" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -14444,6 +14832,12 @@
           <t>2-s2.0-84925013253</t>
         </is>
       </c>
+      <c r="BT65" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU65" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -14671,6 +15065,12 @@
           <t>2-s2.0-84925018249</t>
         </is>
       </c>
+      <c r="BT66" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU66" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -14897,6 +15297,12 @@
         <is>
           <t>2-s2.0-84924984969</t>
         </is>
+      </c>
+      <c r="BT67" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU67" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="68">
@@ -15105,6 +15511,12 @@
           <t>2-s2.0-84916943796</t>
         </is>
       </c>
+      <c r="BT68" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU68" t="n">
+        <v>114</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -15320,6 +15732,12 @@
           <t>2-s2.0-84916943064</t>
         </is>
       </c>
+      <c r="BT69" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU69" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -15535,6 +15953,12 @@
           <t>2-s2.0-84916943735</t>
         </is>
       </c>
+      <c r="BT70" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU70" t="n">
+        <v>27</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -15750,6 +16174,12 @@
           <t>2-s2.0-84916943971</t>
         </is>
       </c>
+      <c r="BT71" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU71" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -15960,6 +16390,12 @@
         <is>
           <t>2-s2.0-84916943060</t>
         </is>
+      </c>
+      <c r="BT72" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU72" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="73">
@@ -16168,6 +16604,12 @@
           <t>2-s2.0-84916943665</t>
         </is>
       </c>
+      <c r="BT73" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU73" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -16375,6 +16817,12 @@
           <t>2-s2.0-84916943827</t>
         </is>
       </c>
+      <c r="BT74" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU74" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -16582,6 +17030,12 @@
           <t>2-s2.0-84909644867</t>
         </is>
       </c>
+      <c r="BT75" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU75" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -16797,6 +17251,12 @@
           <t>2-s2.0-84909635840</t>
         </is>
       </c>
+      <c r="BT76" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU76" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -17008,6 +17468,12 @@
           <t>2-s2.0-84909646711</t>
         </is>
       </c>
+      <c r="BT77" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU77" t="n">
+        <v>34</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -17223,6 +17689,12 @@
           <t>2-s2.0-84909644756</t>
         </is>
       </c>
+      <c r="BT78" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU78" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -17437,6 +17909,12 @@
         <is>
           <t>2-s2.0-84909642328</t>
         </is>
+      </c>
+      <c r="BT79" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU79" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="80">
@@ -17645,6 +18123,12 @@
           <t>2-s2.0-84909638833</t>
         </is>
       </c>
+      <c r="BT80" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU80" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -17860,6 +18344,12 @@
           <t>2-s2.0-84909592690</t>
         </is>
       </c>
+      <c r="BT81" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU81" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -18082,6 +18572,12 @@
         <is>
           <t>2-s2.0-84911363153</t>
         </is>
+      </c>
+      <c r="BT82" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU82" t="n">
+        <v>49</v>
       </c>
     </row>
     <row r="83">
@@ -18286,6 +18782,12 @@
           <t>2-s2.0-84910670654</t>
         </is>
       </c>
+      <c r="BT83" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU83" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -18509,6 +19011,12 @@
           <t>2-s2.0-84911381025</t>
         </is>
       </c>
+      <c r="BT84" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU84" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -18732,6 +19240,12 @@
           <t>2-s2.0-84911372740</t>
         </is>
       </c>
+      <c r="BT85" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU85" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -18959,6 +19473,12 @@
           <t>2-s2.0-84911435479</t>
         </is>
       </c>
+      <c r="BT86" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU86" t="n">
+        <v>22</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -19178,6 +19698,12 @@
           <t>2-s2.0-84911415805</t>
         </is>
       </c>
+      <c r="BT87" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU87" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -19401,6 +19927,12 @@
           <t>2-s2.0-84911448250</t>
         </is>
       </c>
+      <c r="BT88" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU88" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -19624,6 +20156,12 @@
           <t>2-s2.0-84911369308</t>
         </is>
       </c>
+      <c r="BT89" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU89" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -19843,6 +20381,12 @@
           <t>2-s2.0-84910644044</t>
         </is>
       </c>
+      <c r="BT90" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU90" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -20062,6 +20606,12 @@
           <t>2-s2.0-84911448530</t>
         </is>
       </c>
+      <c r="BT91" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU91" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -20272,6 +20822,12 @@
         <is>
           <t>2-s2.0-84939803576</t>
         </is>
+      </c>
+      <c r="BT92" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU92" t="n">
+        <v>14</v>
       </c>
     </row>
     <row r="93">
@@ -20476,6 +21032,12 @@
           <t>2-s2.0-84940713472</t>
         </is>
       </c>
+      <c r="BT93" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU93" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -20687,6 +21249,12 @@
           <t>2-s2.0-84939801458</t>
         </is>
       </c>
+      <c r="BT94" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU94" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -20898,6 +21466,12 @@
           <t>2-s2.0-84940713533</t>
         </is>
       </c>
+      <c r="BT95" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU95" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -21117,6 +21691,12 @@
           <t>2-s2.0-84940712138</t>
         </is>
       </c>
+      <c r="BT96" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU96" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -21328,6 +21908,12 @@
           <t>2-s2.0-84940713714</t>
         </is>
       </c>
+      <c r="BT97" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU97" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -21535,6 +22121,12 @@
           <t>2-s2.0-84940711977</t>
         </is>
       </c>
+      <c r="BT98" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU98" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -21750,6 +22342,12 @@
           <t>2-s2.0-84940713018</t>
         </is>
       </c>
+      <c r="BT99" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU99" t="n">
+        <v>16</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
